--- a/Lista de Produtos.xlsx
+++ b/Lista de Produtos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Família Figueira\Development\Consult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C684DF94-6622-432E-A45A-C29F0EE4E606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A580AC-7704-4690-BEC2-C15C0643D6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +601,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>2111</v>
+        <v>2101</v>
       </c>
       <c r="C12" s="1">
         <v>11</v>
@@ -612,7 +612,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
@@ -623,10 +623,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="2">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="C14" s="1">
         <v>9</v>
+      </c>
+      <c r="D14" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -634,7 +637,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>3100</v>
+        <v>3001</v>
       </c>
       <c r="C16" s="1">
         <v>2.5</v>
@@ -645,7 +648,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>3200</v>
+        <v>3002</v>
       </c>
       <c r="C17" s="1">
         <v>8</v>
